--- a/allPDF/TI学习/2944的数据手册和加速器模块的应用介绍/2944_750M波形配置.xlsx
+++ b/allPDF/TI学习/2944的数据手册和加速器模块的应用介绍/2944_750M波形配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="波形简介" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,46 +480,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,97 +534,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8094,6 +8087,2883 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2844800"/>
+          <a:ext cx="700405" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>256chirp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2844800"/>
+          <a:ext cx="764540" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>256chirp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2844800"/>
+          <a:ext cx="796290" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>256chirp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="2844800"/>
+          <a:ext cx="694690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>256chirp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3733800"/>
+          <a:ext cx="567690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>burst</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="3733800"/>
+          <a:ext cx="567690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>burst</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3733800"/>
+          <a:ext cx="567690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>burst</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3733800"/>
+          <a:ext cx="567690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>burst</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4622800"/>
+          <a:ext cx="782955" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>subfrme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212090</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="4622800"/>
+          <a:ext cx="897890" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>subfrme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="4622800"/>
+          <a:ext cx="770890" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>subfrme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="4622800"/>
+          <a:ext cx="770890" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>subfrme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217805</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480695</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5704205" y="5671185"/>
+          <a:ext cx="948690" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>advfrme</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433705</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3176905" y="4945380"/>
+          <a:ext cx="2910840" cy="706755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5248910" y="4864100"/>
+          <a:ext cx="831850" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6080760" y="4841240"/>
+          <a:ext cx="1071880" cy="818515"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6073140" y="4852670"/>
+          <a:ext cx="3079115" cy="817880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3027045" y="3975100"/>
+          <a:ext cx="635" cy="607060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376555</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5168265" y="3961130"/>
+          <a:ext cx="8890" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7141845" y="3975100"/>
+          <a:ext cx="12700" cy="614045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385445</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9297035" y="3978275"/>
+          <a:ext cx="3810" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5168265" y="3070860"/>
+          <a:ext cx="3175" cy="588645"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7256145" y="3085465"/>
+          <a:ext cx="5715" cy="592455"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9262745" y="3085465"/>
+          <a:ext cx="1270" cy="575945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3093720" y="3085465"/>
+          <a:ext cx="5080" cy="596265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13044,8 +15914,8 @@
   <sheetPr/>
   <dimension ref="E14:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -13071,8 +15941,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
